--- a/Data/HeroConfig.xlsx
+++ b/Data/HeroConfig.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>HP</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>HeroName</t>
+  </si>
+  <si>
+    <t>GoldUpgrade</t>
   </si>
 </sst>
 </file>
@@ -68,20 +71,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -90,8 +114,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -425,44 +451,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Data/HeroConfig.xlsx
+++ b/Data/HeroConfig.xlsx
@@ -454,7 +454,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
